--- a/deepfake_detect.xlsx
+++ b/deepfake_detect.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梁康明\Desktop\pdf\唇形同步\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E813D23-9997-4E42-9CD9-79ACDAD61706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B52852-146E-4023-89AE-082664AB8035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>TK_AVS_audio_part</t>
   </si>
@@ -1832,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2054,9 +2063,263 @@
         <v>0.4425</v>
       </c>
     </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C2-$C$3</f>
+        <v>1.49E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D2-$D$3</f>
+        <v>5.0999999999999934E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>E2-$E$3</f>
+        <v>-1.67E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <f>F2-$F$3</f>
+        <v>1.3299999999999979E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <f>G2-$G$3</f>
+        <v>5.9999999999999984E-4</v>
+      </c>
+      <c r="H30" s="1">
+        <f>H2-$H$3</f>
+        <v>5.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:C37" si="0">C3-$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:D37" si="1">D3-$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31:E37" si="2">E3-$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:F37" si="3">F3-$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31:G37" si="4">G3-$G$3</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31:H37" si="5">H3-$H$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.12060000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2999999999999732E-3</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5000000000000014E-3</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.3200000000000007E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.8000000000000265E-3</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9700000000000011E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.8000000000000014E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23239999999999997</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4000000000000195E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24230000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4274</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999939E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56790000000000007</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5999999999999912E-3</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5132000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39849999999999997</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999855E-3</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57469999999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6999999999999846E-3</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50889999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.21E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28900000000000003</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999899E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.26350000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/deepfake_detect.xlsx
+++ b/deepfake_detect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梁康明\Desktop\pdf\唇形同步\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\arclab\论文\一些文献材料\唇形同步\lip_sync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B52852-146E-4023-89AE-082664AB8035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF82E5-0BD2-4542-859C-7E32021A5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>TK_AVS_audio_part</t>
   </si>
@@ -77,6 +75,44 @@
   </si>
   <si>
     <t>groundtruth</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Min_Dist</t>
+  </si>
+  <si>
+    <t>ours_output_demo</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>wav2lip_demo_00</t>
+  </si>
+  <si>
+    <t>lip_gandemo_00</t>
+  </si>
+  <si>
+    <t>tk_avs_audio_part</t>
+  </si>
+  <si>
+    <t>wav2lip_audio_part</t>
+  </si>
+  <si>
+    <t>lip_gan_audio_part</t>
+  </si>
+  <si>
+    <t>ours_output_audio_part_256</t>
+  </si>
+  <si>
+    <t>Confidence_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min_Dist_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1841,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H37"/>
+  <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G50" sqref="C42:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2316,6 +2352,172 @@
         <v>0.26350000000000001</v>
       </c>
     </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>1.4733000000000001</v>
+      </c>
+      <c r="E43">
+        <v>10.2248</v>
+      </c>
+      <c r="F43">
+        <f>D43-$D$44</f>
+        <v>-1.0943000000000001</v>
+      </c>
+      <c r="G43">
+        <f>E43-$E$44</f>
+        <v>-0.3340999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>2.5676000000000001</v>
+      </c>
+      <c r="E44">
+        <v>10.5589</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F50" si="6">D44-$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:G50" si="7">E44-$E$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>5.5541</v>
+      </c>
+      <c r="E45">
+        <v>7.0789</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>2.9864999999999999</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>-3.4799999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>4.6426999999999996</v>
+      </c>
+      <c r="E46">
+        <v>7.8890000000000002</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>2.0750999999999995</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>-2.6698999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>8.1609999999999996</v>
+      </c>
+      <c r="E47">
+        <v>5.9863999999999997</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>5.593399999999999</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>-4.5724999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>3.8961000000000001</v>
+      </c>
+      <c r="E48">
+        <v>8.7756000000000007</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>1.3285</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>-1.7832999999999988</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>3.3708999999999998</v>
+      </c>
+      <c r="E49">
+        <v>9.5070999999999994</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>0.80329999999999968</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>-1.0518000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>1.1984999999999999</v>
+      </c>
+      <c r="E50">
+        <v>10.844099999999999</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>-1.3691000000000002</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>0.28519999999999968</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
